--- a/xlsx/博弈论_intext.xlsx
+++ b/xlsx/博弈论_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="507">
   <si>
     <t>博弈论</t>
   </si>
@@ -47,7 +47,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>非洲經濟</t>
+    <t>非洲经济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E7%BE%8E%E6%B4%B2%E7%BB%8F%E6%B5%8E</t>
@@ -59,7 +59,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>亞洲經濟</t>
+    <t>亚洲经济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2%E7%BB%8F%E6%B5%8E</t>
@@ -125,7 +125,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%B0%91%E6%94%B6%E5%85%A5</t>
   </si>
   <si>
-    <t>國民收入</t>
+    <t>国民收入</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E4%BD%93%E7%B3%BB</t>
@@ -161,7 +161,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E7%82%BA%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>行為經濟學</t>
+    <t>行为经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%8C%96%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
@@ -191,7 +191,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A8%E5%B9%A3%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>貨幣經濟學</t>
+    <t>货币经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E8%9E%8D%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
@@ -203,7 +203,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>公共經濟學</t>
+    <t>公共经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%88%A9%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
@@ -227,7 +227,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BE%B2%E6%A5%AD%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>農業經濟學</t>
+    <t>农业经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%AF%E5%A2%83%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
@@ -251,19 +251,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E6%85%8B%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>生態經濟學</t>
+    <t>生态经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>社會經濟學</t>
+    <t>社会经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%81%E9%96%89%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>封閉經濟</t>
+    <t>封闭经济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%8C%E5%85%83%E7%BB%8F%E6%B5%8E</t>
@@ -281,7 +281,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%AD%A3%E5%BC%8F%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>非正式經濟</t>
+    <t>非正式经济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%82%E5%9C%BA%E7%BB%8F%E6%B5%8E</t>
@@ -413,7 +413,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%88%88%E5%B7%A5%E6%A5%AD%E5%8C%96%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>新興工業化國家</t>
+    <t>新兴工业化国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E5%B8%82%E5%9C%BA%E7%BB%8F%E6%B5%8E</t>
@@ -431,7 +431,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E6%BA%90%E5%B0%8E%E5%90%91%E5%9E%8B%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>資源導向型經濟</t>
+    <t>资源导向型经济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:Economics_sidebar</t>
@@ -485,7 +485,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%8B%E7%B1%8C%E5%AD%B8</t>
   </si>
   <si>
-    <t>運籌學</t>
+    <t>运筹学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%9A%E5%BE%92%E5%9B%B0%E5%A2%83</t>
@@ -521,7 +521,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A3%E5%89%87%E5%BD%A2%E5%BC%8F%E7%9A%84%E5%8D%9A%E5%BC%88</t>
   </si>
   <si>
-    <t>正則形式的博弈</t>
+    <t>正则形式的博弈</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%87%BD%E6%95%B0</t>
@@ -569,13 +569,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%90%8A%E5%9B%A0%E5%93%88%E5%BE%B7%C2%B7%E6%BE%A4%E7%88%BE%E9%A8%B0</t>
   </si>
   <si>
-    <t>萊因哈德·澤爾騰</t>
+    <t>莱因哈德·泽尔腾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%85%B8%E9%8A%80%E8%A1%8C%E7%B6%93%E6%BF%9F%E5%AD%B8%E7%8D%8E</t>
   </si>
   <si>
-    <t>瑞典銀行經濟學獎</t>
+    <t>瑞典银行经济学奖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E4%BC%AF%E7%89%B9%C2%B7J%C2%B7%E5%A5%A5%E6%9B%BC</t>
@@ -785,7 +785,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%89%E9%99%90%E5%B9%BE%E4%BD%95%E5%AD%B8</t>
   </si>
   <si>
-    <t>有限幾何學</t>
+    <t>有限几何学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%93%E6%89%91%E5%AD%A6</t>
@@ -803,7 +803,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B5%84%E5%90%88</t>
   </si>
   <si>
-    <t>組合</t>
+    <t>组合</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%9B%E5%87%BD%E5%88%86%E6%9E%90</t>
@@ -857,7 +857,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B6%A3%E5%91%B3%E6%95%B8%E5%AD%B8</t>
   </si>
   <si>
-    <t>趣味數學</t>
+    <t>趣味数学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AE%A1%E7%AE%97%E7%90%86%E8%AE%BA</t>
@@ -905,9 +905,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A3%E5%88%99%E5%BD%A2%E5%BC%8F%E7%9A%84%E5%8D%9A%E5%BC%88</t>
   </si>
   <si>
-    <t>正则形式的博弈</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%A1%E6%81%AF%E9%9B%86_(%E5%8D%9A%E5%BC%88%E8%AE%BA)</t>
   </si>
   <si>
@@ -917,13 +914,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%81%8F%E5%A5%BD_(%E7%B6%93%E6%BF%9F%E5%AD%B8)</t>
   </si>
   <si>
-    <t>偏好 (經濟學)</t>
+    <t>偏好 (经济学)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E5%9D%87%E8%A1%A1</t>
   </si>
   <si>
-    <t>經濟均衡</t>
+    <t>经济均衡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%9D%E5%8F%B6%E6%96%AF%E5%8D%9A%E5%BC%88</t>
@@ -947,7 +944,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AD%96%E7%95%A5_(%E5%8D%9A%E5%BC%88%E8%AB%96)</t>
   </si>
   <si>
-    <t>策略 (博弈論)</t>
+    <t>策略 (博弈论)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%AF%E9%85%8D%E6%80%A7%E7%AD%96%E7%95%A5</t>
@@ -959,7 +956,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8A%95%E6%A1%83%E5%A0%B1%E6%9D%8E</t>
   </si>
   <si>
-    <t>投桃報李</t>
+    <t>投桃报李</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%B9%E7%A7%B0%E5%8D%9A%E5%BC%88</t>
@@ -1013,7 +1010,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%86%BD%E5%B0%8F%E9%AC%BC%E5%8D%9A%E5%BC%88</t>
   </si>
   <si>
-    <t>膽小鬼博弈</t>
+    <t>胆小鬼博弈</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BF%97%E6%84%BF%E8%80%85%E5%9B%B0%E5%A2%83</t>
@@ -1025,7 +1022,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%90%AD%E4%BE%BF%E8%BB%8A%E5%95%8F%E9%A1%8C</t>
   </si>
   <si>
-    <t>搭便車問題</t>
+    <t>搭便车问题</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%8D%E5%8D%96%E7%BE%8E%E5%85%83</t>
@@ -1043,7 +1040,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8D%B5%E9%B9%BF%E8%B3%BD%E5%B1%80</t>
   </si>
   <si>
-    <t>獵鹿賽局</t>
+    <t>猎鹿赛局</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Penney%27s_game</t>
@@ -1055,7 +1052,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%80%E5%BE%8C%E9%80%9A%E7%89%92%E8%B3%BD%E5%B1%80</t>
   </si>
   <si>
-    <t>最後通牒賽局</t>
+    <t>最后通牒赛局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%91%E6%95%B0%E6%B4%BE%E5%8D%9A%E5%BC%88</t>
@@ -1079,7 +1076,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E6%A0%A1%E8%B3%BD%E5%B1%80</t>
   </si>
   <si>
-    <t>上校賽局</t>
+    <t>上校赛局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E6%93%A6%E6%88%98</t>
@@ -1103,7 +1100,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%BB%E7%B5%90_(%E8%B3%BD%E5%B1%80%E7%90%86%E8%AB%96)</t>
   </si>
   <si>
-    <t>死結 (賽局理論)</t>
+    <t>死结 (赛局理论)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%A8%E9%A4%90%E8%80%85%E5%9B%B0%E5%A2%83</t>
@@ -1133,9 +1130,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E8%A7%80%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>微觀經濟學</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E8%A7%82%E7%BB%8F%E6%B5%8E%E5%AD%A6%E7%9B%B8%E5%85%B3%E4%B8%BB%E9%A2%98%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
@@ -1151,7 +1145,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%A9%E5%93%81_(%E7%B6%93%E6%BF%9F%E5%AD%B8)</t>
   </si>
   <si>
-    <t>物品 (經濟學)</t>
+    <t>物品 (经济学)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8D%E8%B4%B9%E7%89%A9%E5%93%81</t>
@@ -1163,7 +1157,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%81%E6%9C%89%E8%B2%A1%E7%94%A2</t>
   </si>
   <si>
-    <t>私有財產</t>
+    <t>私有财产</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E7%89%A9%E5%93%81</t>
@@ -1175,13 +1169,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E6%9D%9F%E6%A5%B5%E5%A4%A7%E5%8C%96</t>
   </si>
   <si>
-    <t>約束極大化</t>
+    <t>约束极大化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A9%9F%E6%9C%83%E6%88%90%E6%9C%AC</t>
   </si>
   <si>
-    <t>機會成本</t>
+    <t>机会成本</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%89%E6%B2%A1%E6%88%90%E6%9C%AC</t>
@@ -1205,7 +1199,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BE%9B%E7%B5%A6%E5%92%8C%E9%9C%80%E6%B1%82</t>
   </si>
   <si>
-    <t>供給和需求</t>
+    <t>供给和需求</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BE%9B%E7%BB%99%E6%9B%B2%E7%BA%BF</t>
@@ -1217,7 +1211,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9C%80%E6%B1%82%E6%9B%B2%E7%B7%9A</t>
   </si>
   <si>
-    <t>需求曲線</t>
+    <t>需求曲线</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%B9%E6%80%A7_(%E7%BB%8F%E6%B5%8E%E5%AD%A6)</t>
@@ -1229,7 +1223,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E7%9F%AD%E7%BC%BA</t>
   </si>
   <si>
-    <t>經濟短缺</t>
+    <t>经济短缺</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Excess_supply</t>
@@ -1241,7 +1235,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E8%88%AC%E5%9D%87%E8%A1%A1%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>一般均衡理論</t>
+    <t>一般均衡理论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%88%E7%94%A8</t>
@@ -1253,13 +1247,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AD%89%E5%84%AA%E6%9B%B2%E7%B7%9A</t>
   </si>
   <si>
-    <t>等優曲線</t>
+    <t>等优曲线</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A0%90%E7%AE%97%E7%B7%9A</t>
   </si>
   <si>
-    <t>預算線</t>
+    <t>预算线</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Income%E2%80%93consumption_curve</t>
@@ -1271,13 +1265,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8D%E7%A2%BA%E5%AE%9A%E6%80%A7</t>
   </si>
   <si>
-    <t>不確定性</t>
+    <t>不确定性</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A2%A8%E9%9A%AA%E5%8E%AD%E6%83%A1</t>
   </si>
   <si>
-    <t>風險厭惡</t>
+    <t>风险厌恶</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8D%9F%E5%A4%B1%E8%A7%84%E9%81%BF</t>
@@ -1307,7 +1301,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A0%B1%E9%85%AC%E9%81%9E%E6%B8%9B</t>
   </si>
   <si>
-    <t>報酬遞減</t>
+    <t>报酬递减</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BA%E5%AE%9A%E6%88%90%E6%9C%AC</t>
@@ -1319,7 +1313,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AE%8A%E5%8B%95%E6%88%90%E6%9C%AC</t>
   </si>
   <si>
-    <t>變動成本</t>
+    <t>变动成本</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Average_cost</t>
@@ -1331,7 +1325,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%82%8A%E9%9A%9B%E6%88%90%E6%9C%AC</t>
   </si>
   <si>
-    <t>邊際成本</t>
+    <t>边际成本</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%B6%A6</t>
@@ -1349,19 +1343,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AD%89%E7%94%A2%E9%87%8F%E6%9B%B2%E7%B7%9A</t>
   </si>
   <si>
-    <t>等產量曲線</t>
+    <t>等产量曲线</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%BD%A4%E6%9C%80%E5%A4%A7%E5%8C%96</t>
   </si>
   <si>
-    <t>利潤最大化</t>
+    <t>利润最大化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A6%8F%E6%A8%A1%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>規模經濟</t>
+    <t>规模经济</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Economies_of_scope</t>
@@ -1373,25 +1367,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%83%B9%E6%A0%BC</t>
   </si>
   <si>
-    <t>價格</t>
+    <t>价格</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E5%89%A9%E9%A4%98</t>
   </si>
   <si>
-    <t>經濟剩餘</t>
+    <t>经济剩馀</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B6%88%E8%B4%B9%E8%80%85%E5%89%A9%E4%BD%99</t>
   </si>
   <si>
-    <t>消费者剩余</t>
+    <t>消费者剩馀</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E4%BA%A7%E8%80%85%E5%89%A9%E4%BD%99</t>
   </si>
   <si>
-    <t>生产者剩余</t>
+    <t>生产者剩馀</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A0%E8%B0%93%E6%8D%9F%E5%A4%B1</t>
@@ -1403,7 +1397,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%82%E5%A0%B4%E5%A4%B1%E9%9D%88</t>
   </si>
   <si>
-    <t>市場失靈</t>
+    <t>市场失灵</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%96%E9%83%A8%E6%80%A7</t>
@@ -1427,7 +1421,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%A3%E6%96%B9%E5%A3%9F%E6%96%B7</t>
   </si>
   <si>
-    <t>賣方壟斷</t>
+    <t>卖方垄断</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%B0%E6%96%B9%E5%9E%84%E6%96%AD</t>
@@ -1439,7 +1433,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%A1%E9%A0%AD%E5%A3%9F%E6%96%B7</t>
   </si>
   <si>
-    <t>寡頭壟斷</t>
+    <t>寡头垄断</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8C%E5%A4%B4%E5%9E%84%E6%96%AD</t>
@@ -1475,37 +1469,31 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A8%88%E7%AE%97%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>計算經濟學</t>
+    <t>计算经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%BA%E7%AD%96%E8%AB%96</t>
   </si>
   <si>
-    <t>決策論</t>
+    <t>决策论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A8%88%E9%87%8F%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>計量經濟學</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%B6%E5%BA%AD%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>家庭經濟學</t>
+    <t>家庭经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%9A%E5%BC%88%E8%AB%96</t>
   </si>
   <si>
-    <t>博弈論</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8B%9E%E5%8B%95%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>勞動經濟學</t>
+    <t>劳动经济学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Managerial_economics</t>
@@ -1517,9 +1505,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%B8%E7%90%86%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>數理經濟學</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/Microfoundations</t>
   </si>
   <si>
@@ -1529,13 +1514,10 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%88%A9%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>福利經濟學</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A%E5%9B%BE%E4%B9%A6%E9%A6%86%E6%8E%A7%E5%88%B6%E5%8F%B7</t>
@@ -1553,7 +1535,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
@@ -6274,7 +6256,7 @@
         <v>295</v>
       </c>
       <c r="F151" t="s">
-        <v>296</v>
+        <v>168</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -6329,10 +6311,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
+        <v>296</v>
+      </c>
+      <c r="F153" t="s">
         <v>297</v>
-      </c>
-      <c r="F153" t="s">
-        <v>298</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -6358,10 +6340,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
+        <v>298</v>
+      </c>
+      <c r="F154" t="s">
         <v>299</v>
-      </c>
-      <c r="F154" t="s">
-        <v>300</v>
       </c>
       <c r="G154" t="n">
         <v>4</v>
@@ -6387,10 +6369,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
+        <v>300</v>
+      </c>
+      <c r="F155" t="s">
         <v>301</v>
-      </c>
-      <c r="F155" t="s">
-        <v>302</v>
       </c>
       <c r="G155" t="n">
         <v>17</v>
@@ -6416,10 +6398,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
+        <v>302</v>
+      </c>
+      <c r="F156" t="s">
         <v>303</v>
-      </c>
-      <c r="F156" t="s">
-        <v>304</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6445,10 +6427,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
+        <v>302</v>
+      </c>
+      <c r="F157" t="s">
         <v>303</v>
-      </c>
-      <c r="F157" t="s">
-        <v>304</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6474,10 +6456,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
+        <v>304</v>
+      </c>
+      <c r="F158" t="s">
         <v>305</v>
-      </c>
-      <c r="F158" t="s">
-        <v>306</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6503,10 +6485,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
+        <v>306</v>
+      </c>
+      <c r="F159" t="s">
         <v>307</v>
-      </c>
-      <c r="F159" t="s">
-        <v>308</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6532,10 +6514,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
+        <v>308</v>
+      </c>
+      <c r="F160" t="s">
         <v>309</v>
-      </c>
-      <c r="F160" t="s">
-        <v>310</v>
       </c>
       <c r="G160" t="n">
         <v>15</v>
@@ -6561,10 +6543,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
+        <v>310</v>
+      </c>
+      <c r="F161" t="s">
         <v>311</v>
-      </c>
-      <c r="F161" t="s">
-        <v>312</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6590,10 +6572,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
+        <v>308</v>
+      </c>
+      <c r="F162" t="s">
         <v>309</v>
-      </c>
-      <c r="F162" t="s">
-        <v>310</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6619,10 +6601,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
+        <v>308</v>
+      </c>
+      <c r="F163" t="s">
         <v>309</v>
-      </c>
-      <c r="F163" t="s">
-        <v>310</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6648,10 +6630,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
+        <v>312</v>
+      </c>
+      <c r="F164" t="s">
         <v>313</v>
-      </c>
-      <c r="F164" t="s">
-        <v>314</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6677,10 +6659,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
+        <v>314</v>
+      </c>
+      <c r="F165" t="s">
         <v>315</v>
-      </c>
-      <c r="F165" t="s">
-        <v>316</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6706,10 +6688,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
+        <v>316</v>
+      </c>
+      <c r="F166" t="s">
         <v>317</v>
-      </c>
-      <c r="F166" t="s">
-        <v>318</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6735,10 +6717,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
+        <v>318</v>
+      </c>
+      <c r="F167" t="s">
         <v>319</v>
-      </c>
-      <c r="F167" t="s">
-        <v>320</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6764,10 +6746,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
+        <v>320</v>
+      </c>
+      <c r="F168" t="s">
         <v>321</v>
-      </c>
-      <c r="F168" t="s">
-        <v>322</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6793,10 +6775,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
+        <v>322</v>
+      </c>
+      <c r="F169" t="s">
         <v>323</v>
-      </c>
-      <c r="F169" t="s">
-        <v>324</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6822,10 +6804,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
+        <v>324</v>
+      </c>
+      <c r="F170" t="s">
         <v>325</v>
-      </c>
-      <c r="F170" t="s">
-        <v>326</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -6851,10 +6833,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
+        <v>326</v>
+      </c>
+      <c r="F171" t="s">
         <v>327</v>
-      </c>
-      <c r="F171" t="s">
-        <v>328</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6880,10 +6862,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
+        <v>328</v>
+      </c>
+      <c r="F172" t="s">
         <v>329</v>
-      </c>
-      <c r="F172" t="s">
-        <v>330</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -6909,10 +6891,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
+        <v>330</v>
+      </c>
+      <c r="F173" t="s">
         <v>331</v>
-      </c>
-      <c r="F173" t="s">
-        <v>332</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -6938,10 +6920,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
+        <v>332</v>
+      </c>
+      <c r="F174" t="s">
         <v>333</v>
-      </c>
-      <c r="F174" t="s">
-        <v>334</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -6967,10 +6949,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
+        <v>334</v>
+      </c>
+      <c r="F175" t="s">
         <v>335</v>
-      </c>
-      <c r="F175" t="s">
-        <v>336</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -6996,10 +6978,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
+        <v>336</v>
+      </c>
+      <c r="F176" t="s">
         <v>337</v>
-      </c>
-      <c r="F176" t="s">
-        <v>338</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -7025,10 +7007,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
+        <v>338</v>
+      </c>
+      <c r="F177" t="s">
         <v>339</v>
-      </c>
-      <c r="F177" t="s">
-        <v>340</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -7054,10 +7036,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
+        <v>340</v>
+      </c>
+      <c r="F178" t="s">
         <v>341</v>
-      </c>
-      <c r="F178" t="s">
-        <v>342</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -7083,10 +7065,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
+        <v>342</v>
+      </c>
+      <c r="F179" t="s">
         <v>343</v>
-      </c>
-      <c r="F179" t="s">
-        <v>344</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -7112,10 +7094,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
+        <v>344</v>
+      </c>
+      <c r="F180" t="s">
         <v>345</v>
-      </c>
-      <c r="F180" t="s">
-        <v>346</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -7141,10 +7123,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
+        <v>346</v>
+      </c>
+      <c r="F181" t="s">
         <v>347</v>
-      </c>
-      <c r="F181" t="s">
-        <v>348</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -7170,10 +7152,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
+        <v>348</v>
+      </c>
+      <c r="F182" t="s">
         <v>349</v>
-      </c>
-      <c r="F182" t="s">
-        <v>350</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -7199,10 +7181,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
+        <v>350</v>
+      </c>
+      <c r="F183" t="s">
         <v>351</v>
-      </c>
-      <c r="F183" t="s">
-        <v>352</v>
       </c>
       <c r="G183" t="n">
         <v>2</v>
@@ -7228,10 +7210,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
+        <v>352</v>
+      </c>
+      <c r="F184" t="s">
         <v>353</v>
-      </c>
-      <c r="F184" t="s">
-        <v>354</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -7257,10 +7239,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
+        <v>354</v>
+      </c>
+      <c r="F185" t="s">
         <v>355</v>
-      </c>
-      <c r="F185" t="s">
-        <v>356</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7286,10 +7268,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
+        <v>356</v>
+      </c>
+      <c r="F186" t="s">
         <v>357</v>
-      </c>
-      <c r="F186" t="s">
-        <v>358</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7315,10 +7297,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
+        <v>358</v>
+      </c>
+      <c r="F187" t="s">
         <v>359</v>
-      </c>
-      <c r="F187" t="s">
-        <v>360</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7344,10 +7326,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
+        <v>360</v>
+      </c>
+      <c r="F188" t="s">
         <v>361</v>
-      </c>
-      <c r="F188" t="s">
-        <v>362</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7373,10 +7355,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
+        <v>362</v>
+      </c>
+      <c r="F189" t="s">
         <v>363</v>
-      </c>
-      <c r="F189" t="s">
-        <v>364</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7402,10 +7384,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
+        <v>364</v>
+      </c>
+      <c r="F190" t="s">
         <v>365</v>
-      </c>
-      <c r="F190" t="s">
-        <v>366</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7431,10 +7413,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
+        <v>366</v>
+      </c>
+      <c r="F191" t="s">
         <v>367</v>
-      </c>
-      <c r="F191" t="s">
-        <v>368</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7460,10 +7442,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
+        <v>368</v>
+      </c>
+      <c r="F192" t="s">
         <v>369</v>
-      </c>
-      <c r="F192" t="s">
-        <v>370</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7489,10 +7471,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F193" t="s">
-        <v>372</v>
+        <v>20</v>
       </c>
       <c r="G193" t="n">
         <v>3</v>
@@ -7518,10 +7500,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F194" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7547,10 +7529,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F195" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7576,10 +7558,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F196" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G196" t="n">
         <v>3</v>
@@ -7605,10 +7587,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F197" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -7634,10 +7616,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F198" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -7663,10 +7645,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F199" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -7692,10 +7674,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F200" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -7721,10 +7703,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F201" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -7750,10 +7732,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F202" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -7779,10 +7761,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F203" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -7808,10 +7790,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F204" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -7837,10 +7819,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F205" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -7866,10 +7848,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F206" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -7895,10 +7877,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F207" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -7924,10 +7906,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F208" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -7953,10 +7935,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
+        <v>300</v>
+      </c>
+      <c r="F209" t="s">
         <v>301</v>
-      </c>
-      <c r="F209" t="s">
-        <v>302</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -7982,10 +7964,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F210" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -8011,10 +7993,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F211" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -8040,10 +8022,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F212" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -8069,10 +8051,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F213" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="G213" t="n">
         <v>2</v>
@@ -8098,10 +8080,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F214" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -8127,10 +8109,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F215" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -8156,10 +8138,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F216" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8185,10 +8167,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F217" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8214,10 +8196,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F218" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8243,10 +8225,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F219" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8272,10 +8254,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F220" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8301,10 +8283,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F221" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8330,10 +8312,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F222" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -8359,10 +8341,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F223" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -8388,10 +8370,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F224" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -8417,10 +8399,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F225" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -8446,10 +8428,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F226" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -8475,10 +8457,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="F227" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -8504,10 +8486,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F228" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G228" t="n">
         <v>2</v>
@@ -8533,10 +8515,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F229" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -8562,10 +8544,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="F230" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -8591,10 +8573,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F231" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -8620,10 +8602,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F232" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -8649,10 +8631,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F233" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -8678,10 +8660,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F234" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -8707,10 +8689,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F235" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -8736,10 +8718,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F236" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -8765,10 +8747,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="F237" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -8794,10 +8776,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F238" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -8823,10 +8805,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F239" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -8852,10 +8834,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F240" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -8881,10 +8863,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F241" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -8910,10 +8892,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F242" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -8939,10 +8921,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F243" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -8968,10 +8950,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F244" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -8997,10 +8979,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="F245" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -9026,10 +9008,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F246" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -9055,10 +9037,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="F247" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -9084,10 +9066,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="F248" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -9113,10 +9095,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="F249" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9171,10 +9153,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="F251" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -9200,10 +9182,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="F252" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -9229,10 +9211,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F253" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -9258,10 +9240,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="F254" t="s">
-        <v>490</v>
+        <v>32</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -9316,10 +9298,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="F256" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -9345,10 +9327,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="F257" t="s">
-        <v>494</v>
+        <v>0</v>
       </c>
       <c r="G257" t="n">
         <v>4</v>
@@ -9403,10 +9385,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="F259" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -9432,10 +9414,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="F260" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -9461,10 +9443,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="F261" t="s">
-        <v>500</v>
+        <v>30</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -9490,10 +9472,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="F262" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -9519,10 +9501,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="F263" t="s">
-        <v>504</v>
+        <v>64</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -9548,10 +9530,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="F264" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="G264" t="n">
         <v>3</v>
@@ -9577,10 +9559,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="F265" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -9606,10 +9588,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="F266" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -9635,10 +9617,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="F267" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>

--- a/xlsx/博弈论_intext.xlsx
+++ b/xlsx/博弈论_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="515">
   <si>
     <t>博弈论</t>
   </si>
@@ -29,7 +29,7 @@
     <t>经济学</t>
   </si>
   <si>
-    <t>政策_政策_公共政策_博弈论</t>
+    <t>体育运动_体育运动_赌博_博弈论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E4%BA%BA%E5%9D%87%E5%9B%BD%E5%86%85%E7%94%9F%E4%BA%A7%E6%80%BB%E5%80%BC%E5%88%97%E8%A1%A8_(%E8%B4%AD%E4%B9%B0%E5%8A%9B%E5%B9%B3%E4%BB%B7)</t>
@@ -1062,6 +1062,12 @@
   </si>
   <si>
     <t>少数派博弈</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%9F%B3%E5%A4%B4%E3%80%81%E5%89%AA%E5%AD%90%E3%80%81%E5%B8%83</t>
+  </si>
+  <si>
+    <t>石头、剪子、布</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E7%9B%97%E5%8D%9A%E5%BC%88</t>
@@ -1902,7 +1908,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I267"/>
+  <dimension ref="A1:I268"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3957,7 +3963,7 @@
         <v>140</v>
       </c>
       <c r="G71" t="n">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H71" t="s">
         <v>4</v>
@@ -5117,7 +5123,7 @@
         <v>212</v>
       </c>
       <c r="G111" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H111" t="s">
         <v>4</v>
@@ -7205,7 +7211,7 @@
         <v>352</v>
       </c>
       <c r="G183" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H183" t="s">
         <v>4</v>
@@ -7234,7 +7240,7 @@
         <v>354</v>
       </c>
       <c r="G184" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H184" t="s">
         <v>4</v>
@@ -7495,7 +7501,7 @@
         <v>372</v>
       </c>
       <c r="G193" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H193" t="s">
         <v>4</v>
@@ -7524,7 +7530,7 @@
         <v>374</v>
       </c>
       <c r="G194" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H194" t="s">
         <v>4</v>
@@ -7582,7 +7588,7 @@
         <v>378</v>
       </c>
       <c r="G196" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H196" t="s">
         <v>4</v>
@@ -7611,7 +7617,7 @@
         <v>380</v>
       </c>
       <c r="G197" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H197" t="s">
         <v>4</v>
@@ -7953,10 +7959,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>301</v>
+        <v>403</v>
       </c>
       <c r="F209" t="s">
-        <v>302</v>
+        <v>404</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -7982,10 +7988,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>403</v>
+        <v>301</v>
       </c>
       <c r="F210" t="s">
-        <v>404</v>
+        <v>302</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -8075,7 +8081,7 @@
         <v>410</v>
       </c>
       <c r="G213" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H213" t="s">
         <v>4</v>
@@ -8104,7 +8110,7 @@
         <v>412</v>
       </c>
       <c r="G214" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H214" t="s">
         <v>4</v>
@@ -8510,7 +8516,7 @@
         <v>440</v>
       </c>
       <c r="G228" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H228" t="s">
         <v>4</v>
@@ -8539,7 +8545,7 @@
         <v>442</v>
       </c>
       <c r="G229" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H229" t="s">
         <v>4</v>
@@ -9142,10 +9148,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>47</v>
+        <v>483</v>
       </c>
       <c r="F250" t="s">
-        <v>48</v>
+        <v>484</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -9171,10 +9177,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>483</v>
+        <v>47</v>
       </c>
       <c r="F251" t="s">
-        <v>484</v>
+        <v>48</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -9287,10 +9293,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>33</v>
+        <v>491</v>
       </c>
       <c r="F255" t="s">
-        <v>34</v>
+        <v>492</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -9316,10 +9322,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>491</v>
+        <v>33</v>
       </c>
       <c r="F256" t="s">
-        <v>492</v>
+        <v>34</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -9351,7 +9357,7 @@
         <v>494</v>
       </c>
       <c r="G257" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H257" t="s">
         <v>4</v>
@@ -9374,13 +9380,13 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>75</v>
+        <v>495</v>
       </c>
       <c r="F258" t="s">
-        <v>76</v>
+        <v>496</v>
       </c>
       <c r="G258" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H258" t="s">
         <v>4</v>
@@ -9403,10 +9409,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>495</v>
+        <v>75</v>
       </c>
       <c r="F259" t="s">
-        <v>496</v>
+        <v>76</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -9554,7 +9560,7 @@
         <v>506</v>
       </c>
       <c r="G264" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H264" t="s">
         <v>4</v>
@@ -9583,7 +9589,7 @@
         <v>508</v>
       </c>
       <c r="G265" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H265" t="s">
         <v>4</v>
@@ -9647,6 +9653,35 @@
         <v>4</v>
       </c>
       <c r="I267" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9">
+      <c r="A268" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B268" t="s">
+        <v>0</v>
+      </c>
+      <c r="C268" t="s">
+        <v>1</v>
+      </c>
+      <c r="D268" t="n">
+        <v>267</v>
+      </c>
+      <c r="E268" t="s">
+        <v>513</v>
+      </c>
+      <c r="F268" t="s">
+        <v>514</v>
+      </c>
+      <c r="G268" t="n">
+        <v>1</v>
+      </c>
+      <c r="H268" t="s">
+        <v>4</v>
+      </c>
+      <c r="I268" t="n">
         <v>3</v>
       </c>
     </row>
